--- a/ComputedResults/Area/SixBorderVowels/Danish/MFCC/6_bordervowels_mfcc_da_ADS.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Danish/MFCC/6_bordervowels_mfcc_da_ADS.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>323951.8978996405</v>
+        <v>323952</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50074.27994118642</v>
+        <v>50074</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>438224.2033530622</v>
+        <v>438224</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>187331.0756489281</v>
+        <v>187331</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>680022.6622151932</v>
+        <v>680023</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>534851.2383919767</v>
+        <v>534851</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>181193.2765630199</v>
+        <v>181193</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>581473.927609381</v>
+        <v>581474</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>607189.6418248591</v>
+        <v>607190</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1030320.360381712</v>
+        <v>1030320</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>246671.910033939</v>
+        <v>246672</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1322072.260228157</v>
+        <v>1322072</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1687557.4549438</v>
+        <v>1687557</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>341654.5484422999</v>
+        <v>341655</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>210820.9782038182</v>
+        <v>210821</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>286370.915793898</v>
+        <v>286371</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>548831.9602824084</v>
+        <v>548832</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>648509.9438730929</v>
+        <v>648510</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>321423.3478402795</v>
+        <v>321423</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>793472.621489899</v>
+        <v>793473</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>404844.915114446</v>
+        <v>404845</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1182826.049404735</v>
+        <v>1182826</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4088.838286172878</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>157120.5365530091</v>
+        <v>157121</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>484844.2539598703</v>
+        <v>484844</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>182984.0022128068</v>
+        <v>182984</v>
       </c>
     </row>
   </sheetData>
